--- a/Experiments/Measurements/Single Banner Vertical/V path/Antenna_3/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Vertical/V path/Antenna_3/Transformed_Coordinates.xlsx
@@ -502,7 +502,7 @@
         <v>102.9292494428153</v>
       </c>
       <c r="H2" t="n">
-        <v>149.7668668484524</v>
+        <v>149.7668668484525</v>
       </c>
     </row>
     <row r="3">
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-48.94125421043665</v>
+        <v>-48.94125421043663</v>
       </c>
       <c r="H5" t="n">
         <v>136.0876057103156</v>
@@ -648,7 +648,7 @@
         <v>131.7297666370455</v>
       </c>
       <c r="H7" t="n">
-        <v>99.49777089165195</v>
+        <v>99.49777089165197</v>
       </c>
     </row>
     <row r="8">
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>133.0640953500666</v>
+        <v>133.0640953500665</v>
       </c>
       <c r="H8" t="n">
-        <v>75.50637642886011</v>
+        <v>75.50637642886012</v>
       </c>
     </row>
     <row r="9">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>67.3416224617792</v>
+        <v>67.34162246177921</v>
       </c>
       <c r="H11" t="n">
-        <v>79.14227469132159</v>
+        <v>79.14227469132157</v>
       </c>
     </row>
     <row r="12">
@@ -798,7 +798,7 @@
         <v>33.00478193286658</v>
       </c>
       <c r="H12" t="n">
-        <v>88.03167748966085</v>
+        <v>88.03167748966084</v>
       </c>
     </row>
     <row r="13">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>99.81691753015897</v>
+        <v>99.81691753015895</v>
       </c>
       <c r="H13" t="n">
         <v>101.9812491778686</v>
@@ -858,7 +858,7 @@
         <v>133.1358535291744</v>
       </c>
       <c r="H14" t="n">
-        <v>32.78261365974497</v>
+        <v>32.78261365974499</v>
       </c>
     </row>
     <row r="15">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>73.24753064855696</v>
+        <v>73.24753064855697</v>
       </c>
       <c r="H17" t="n">
-        <v>37.2797167278432</v>
+        <v>37.27971672784318</v>
       </c>
     </row>
     <row r="18">
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>73.23038290792134</v>
+        <v>73.23038290792135</v>
       </c>
       <c r="H18" t="n">
-        <v>30.84377358560949</v>
+        <v>30.84377358560947</v>
       </c>
     </row>
     <row r="19">
@@ -1008,7 +1008,7 @@
         <v>76.07984317332729</v>
       </c>
       <c r="H19" t="n">
-        <v>40.07685105335523</v>
+        <v>40.07685105335526</v>
       </c>
     </row>
     <row r="20">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>99.08697773167131</v>
+        <v>99.08697773167128</v>
       </c>
       <c r="H20" t="n">
-        <v>96.75287905471518</v>
+        <v>96.75287905471519</v>
       </c>
     </row>
     <row r="21">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>47.21109194885062</v>
+        <v>47.21109194885064</v>
       </c>
       <c r="H23" t="n">
-        <v>70.14857500022717</v>
+        <v>70.14857500022715</v>
       </c>
     </row>
     <row r="24">
@@ -1158,7 +1158,7 @@
         <v>103.3604816517521</v>
       </c>
       <c r="H24" t="n">
-        <v>41.78709645347292</v>
+        <v>41.78709645347293</v>
       </c>
     </row>
     <row r="25">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>76.43165524748947</v>
+        <v>76.43165524748946</v>
       </c>
       <c r="H25" t="n">
-        <v>50.79552398754004</v>
+        <v>50.79552398754005</v>
       </c>
     </row>
     <row r="26">
@@ -1218,7 +1218,7 @@
         <v>123.1786760597758</v>
       </c>
       <c r="H26" t="n">
-        <v>50.80600952556841</v>
+        <v>50.80600952556839</v>
       </c>
     </row>
     <row r="27">
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>86.0649576174943</v>
+        <v>86.06495761749427</v>
       </c>
       <c r="H27" t="n">
-        <v>50.36593368848277</v>
+        <v>50.3659336884828</v>
       </c>
     </row>
     <row r="28">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>40.20548895450116</v>
+        <v>40.20548895450111</v>
       </c>
       <c r="H30" t="n">
         <v>115.7528426121828</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>98.26891537890729</v>
+        <v>98.26891537890731</v>
       </c>
       <c r="H31" t="n">
         <v>86.05071707818497</v>
@@ -1395,10 +1395,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>82.05465344048788</v>
+        <v>82.05465344048787</v>
       </c>
       <c r="H32" t="n">
-        <v>49.07740289152117</v>
+        <v>49.07740289152119</v>
       </c>
     </row>
     <row r="33">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>64.47428393202199</v>
+        <v>64.47428393202198</v>
       </c>
       <c r="H33" t="n">
         <v>93.70807046489416</v>
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>117.8340233376086</v>
+        <v>117.8340233376087</v>
       </c>
       <c r="H34" t="n">
-        <v>85.52401671605602</v>
+        <v>85.524016716056</v>
       </c>
     </row>
     <row r="35">
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>-3.81010882594355</v>
+        <v>-3.8101088259436</v>
       </c>
       <c r="H36" t="n">
-        <v>134.7410702889539</v>
+        <v>134.741070288954</v>
       </c>
     </row>
     <row r="37">
@@ -1548,7 +1548,7 @@
         <v>108.1559457973103</v>
       </c>
       <c r="H37" t="n">
-        <v>67.1397472665839</v>
+        <v>67.13974726658391</v>
       </c>
     </row>
     <row r="38">
@@ -1608,7 +1608,7 @@
         <v>118.059099948307</v>
       </c>
       <c r="H39" t="n">
-        <v>44.94339250774394</v>
+        <v>44.94339250774391</v>
       </c>
     </row>
     <row r="40">
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>71.03477490426005</v>
+        <v>71.03477490426003</v>
       </c>
       <c r="H40" t="n">
-        <v>77.2345702609416</v>
+        <v>77.23457026094161</v>
       </c>
     </row>
     <row r="41">
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>68.71428585700701</v>
+        <v>68.71428585700706</v>
       </c>
       <c r="H41" t="n">
         <v>104.9246593142647</v>
@@ -1698,7 +1698,7 @@
         <v>93.0670432543601</v>
       </c>
       <c r="H42" t="n">
-        <v>42.56397403743014</v>
+        <v>42.56397403743011</v>
       </c>
     </row>
     <row r="43">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>83.26063999716189</v>
+        <v>83.2606399971619</v>
       </c>
       <c r="H43" t="n">
-        <v>56.47176281314072</v>
+        <v>56.47176281314071</v>
       </c>
     </row>
     <row r="44">
@@ -1788,7 +1788,7 @@
         <v>122.8541852702144</v>
       </c>
       <c r="H45" t="n">
-        <v>29.30620968056972</v>
+        <v>29.30620968056967</v>
       </c>
     </row>
     <row r="46">
@@ -1818,7 +1818,7 @@
         <v>103.2722223386747</v>
       </c>
       <c r="H46" t="n">
-        <v>33.4376660299171</v>
+        <v>33.43766602991715</v>
       </c>
     </row>
     <row r="47">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>83.07482590602545</v>
+        <v>83.07482590602542</v>
       </c>
       <c r="H47" t="n">
-        <v>34.73929324191255</v>
+        <v>34.73929324191257</v>
       </c>
     </row>
     <row r="48">
@@ -1878,7 +1878,7 @@
         <v>108.1269415248948</v>
       </c>
       <c r="H48" t="n">
-        <v>29.56053345819911</v>
+        <v>29.56053345819914</v>
       </c>
     </row>
     <row r="49">
@@ -1908,7 +1908,7 @@
         <v>123.0805615907347</v>
       </c>
       <c r="H49" t="n">
-        <v>26.62153380349563</v>
+        <v>26.62153380349559</v>
       </c>
     </row>
     <row r="50">
@@ -1938,7 +1938,7 @@
         <v>103.3819914534072</v>
       </c>
       <c r="H50" t="n">
-        <v>27.87633294115167</v>
+        <v>27.87633294115171</v>
       </c>
     </row>
     <row r="51">
@@ -1968,7 +1968,7 @@
         <v>106.9905562739965</v>
       </c>
       <c r="H51" t="n">
-        <v>28.71739981977295</v>
+        <v>28.7173998197729</v>
       </c>
     </row>
   </sheetData>
